--- a/Boletin_ Epi_Pereira/Datos/eda.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/eda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Dropbox\SIVIGILA\boletin epidemiologico per\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Desktop/boletin epidemiologico per/boletin epidemiologico per/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C165E74-F14E-42F5-B551-A00FD5C5B2B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B047B09B-CB1C-E746-B514-EDCC9CAB7C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -414,18 +414,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,576 +436,576 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>471.42625610717914</v>
+        <v>462.54410671937688</v>
       </c>
       <c r="C2" s="1">
-        <v>922.01070985172544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>955.09232533407612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>601.54086452960735</v>
+        <v>465.88419933177443</v>
       </c>
       <c r="C3" s="1">
-        <v>1006.8562415116489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1133.7369766064171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>545.94062921693114</v>
+        <v>512.85718510737388</v>
       </c>
       <c r="C4" s="1">
-        <v>1276.2149165812864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1389.3859588105295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>670.22538915586131</v>
+        <v>549.30833414729682</v>
       </c>
       <c r="C5" s="1">
-        <v>984.82859126763719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1098.4164826612878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>630.64294648642681</v>
+        <v>578.11953579836825</v>
       </c>
       <c r="C6" s="1">
-        <v>1227.8696314431711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1347.4365220214372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>560.88107746881974</v>
+        <v>497.97683169224905</v>
       </c>
       <c r="C7" s="1">
-        <v>1183.8048233146208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1315.7833795495458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>625.86165065779414</v>
+        <v>573.31287053419237</v>
       </c>
       <c r="C8" s="1">
-        <v>1174.3489006412367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1236.531457328547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>647.42244280978366</v>
+        <v>571.45365965853671</v>
       </c>
       <c r="C9" s="1">
-        <v>1095.5804358127646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1155.7658459290803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>523.09183305415013</v>
+        <v>576.07105810381984</v>
       </c>
       <c r="C10" s="1">
-        <v>1054.0589669518781</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1099.5486908602697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>549.77953842234263</v>
+        <v>568.01427690879621</v>
       </c>
       <c r="C11" s="1">
-        <v>1078.4877957086276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1135.3208880412901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>510.41992159956368</v>
+        <v>474.02356312586261</v>
       </c>
       <c r="C12" s="1">
-        <v>969.44123052393604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1058.0583560257523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>447.9439748772283</v>
+        <v>454.38657500161099</v>
       </c>
       <c r="C13" s="1">
-        <v>911.93257021603097</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>973.50076056232513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>367.12168945335031</v>
+        <v>368.13479981971375</v>
       </c>
       <c r="C14" s="1">
-        <v>874.01653209898348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>933.05376563725633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>249.83684594492678</v>
+        <v>252.33020340056464</v>
       </c>
       <c r="C15" s="1">
-        <v>963.27268766051009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1052.2329088132242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>286.48822717130395</v>
+        <v>265.42101078647357</v>
       </c>
       <c r="C16" s="1">
-        <v>987.65472375909746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1046.1715625548206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>248.33972223091982</v>
+        <v>227.55070378925043</v>
       </c>
       <c r="C17" s="1">
-        <v>928.10384552595269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>971.82685670886428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>247.37666821761007</v>
+        <v>201.0786241051585</v>
       </c>
       <c r="C18" s="1">
-        <v>902.0762847480363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>882.99542413872223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>247.44352537717</v>
+        <v>219.86528972518042</v>
       </c>
       <c r="C19" s="1">
-        <v>934.16868948229614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>947.7960391585334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>315.0671510505565</v>
+        <v>276.45433394706453</v>
       </c>
       <c r="C20" s="1">
-        <v>935.66044558535145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>982.7235381127183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>325.91134165662669</v>
+        <v>288.9748150914325</v>
       </c>
       <c r="C21" s="1">
-        <v>905.2310916062379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>950.31572167562877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>306.96687756170161</v>
+        <v>291.5616797847818</v>
       </c>
       <c r="C22" s="1">
-        <v>861.18368435464947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>921.86994386009599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>305.52489639788791</v>
+        <v>263.8621576380902</v>
       </c>
       <c r="C23" s="1">
-        <v>759.14719615584954</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>777.37655965806675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>327.04575024323981</v>
+        <v>270.76586517439546</v>
       </c>
       <c r="C24" s="1">
-        <v>730.91668951231782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>735.95971668568029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>307.34159626234793</v>
+        <v>261.50129400805065</v>
       </c>
       <c r="C25" s="1">
-        <v>684.05313255884482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>701.2384890518714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>276.91766050955971</v>
+        <v>238.81814096195691</v>
       </c>
       <c r="C26" s="1">
-        <v>824.48587369333404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>803.26666757823398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>278.96431161157636</v>
+        <v>247.60594668492186</v>
       </c>
       <c r="C27" s="1">
-        <v>750.1476552084273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>791.02077644620806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>302.91746468375885</v>
+        <v>258.29464062650698</v>
       </c>
       <c r="C28" s="1">
-        <v>793.86803519812474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>784.29964815482197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>357.03115799187566</v>
+        <v>284.47914122579908</v>
       </c>
       <c r="C29" s="1">
-        <v>816.24314602356185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>825.27247544217516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>368.96504643388533</v>
+        <v>311.78925480773842</v>
       </c>
       <c r="C30" s="1">
-        <v>800.66855747863542</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>787.88692966598512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>414.17635820521815</v>
+        <v>327.30106410526736</v>
       </c>
       <c r="C31" s="1">
-        <v>907.77777485589695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>843.06670728716176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>417.37229655049293</v>
+        <v>316.71620138972884</v>
       </c>
       <c r="C32" s="1">
-        <v>753.93392174316432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>770.85993894150567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>432.28734976316503</v>
+        <v>355.13140739507304</v>
       </c>
       <c r="C33" s="1">
-        <v>785.48947940884148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>753.14750309269425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>409.03593617846349</v>
+        <v>364.26381079466137</v>
       </c>
       <c r="C34" s="1">
-        <v>900.67191272021398</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>888.82027049244164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>436.93163738432588</v>
+        <v>405.95751877760853</v>
       </c>
       <c r="C35" s="1">
-        <v>805.70666084700736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>849.12073296038079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>464.49353510496013</v>
+        <v>402.00081481641166</v>
       </c>
       <c r="C36" s="1">
-        <v>874.39788335813444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>896.46202253308593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>454.33003512208762</v>
+        <v>398.9489182250324</v>
       </c>
       <c r="C37" s="1">
-        <v>903.93574845974263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>927.71109369447072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>336.14181180405171</v>
+        <v>387.00221814708226</v>
       </c>
       <c r="C38" s="1">
-        <v>879.24055746728595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>864.61788097106194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>410.65248760824966</v>
+        <v>390.98883261812813</v>
       </c>
       <c r="C39" s="1">
-        <v>885.20120951310889</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>924.93719957334565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>451.37608527999737</v>
+        <v>434.63271536392614</v>
       </c>
       <c r="C40" s="1">
-        <v>924.81921025810288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>950.73540080552334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>419.10619877350365</v>
+        <v>396.3632163508027</v>
       </c>
       <c r="C41" s="1">
-        <v>875.87244000209773</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>887.38780224480672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>422.0495756104292</v>
+        <v>366.25714813067765</v>
       </c>
       <c r="C42" s="1">
-        <v>781.49842519774336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>772.08744418297829</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>449.5148528724032</v>
+        <v>403.31862234677851</v>
       </c>
       <c r="C43" s="1">
-        <v>774.4719071951705</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>796.33698230402138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>468.04064108263339</v>
+        <v>432.56875629428885</v>
       </c>
       <c r="C44" s="1">
-        <v>777.61024555804909</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>774.3567906745559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>431.17384336455933</v>
+        <v>425.4000817561996</v>
       </c>
       <c r="C45" s="1">
-        <v>835.4841022743484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>834.89488109238118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>422.98986918301375</v>
+        <v>392.73629375605861</v>
       </c>
       <c r="C46" s="1">
-        <v>790.8121919310164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>795.13002856071125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>465.97297557181588</v>
+        <v>432.07728788336584</v>
       </c>
       <c r="C47" s="1">
-        <v>695.161515375063</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>692.77823446935599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>393.31766952689077</v>
+        <v>402.98477215400169</v>
       </c>
       <c r="C48" s="1">
-        <v>693.9194759862894</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>721.10468565919768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>303.19913647149281</v>
+        <v>304.31027747505601</v>
       </c>
       <c r="C49" s="1">
-        <v>712.04433171808466</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>752.77202516059185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>346.69486941508046</v>
+        <v>354.39769004040261</v>
       </c>
       <c r="C50" s="1">
-        <v>674.62556248259057</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>700.21222353993119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>365.05813498420025</v>
+        <v>384.27731193144092</v>
       </c>
       <c r="C51" s="1">
-        <v>721.86192104485394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>743.62876084917161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>360.37191955334833</v>
+        <v>355.86773111157515</v>
       </c>
       <c r="C52" s="1">
-        <v>699.31447652215923</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>721.70093251117783</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>315.40859178273325</v>
+        <v>354.8262970340536</v>
       </c>
       <c r="C53" s="1">
-        <v>608.46161953829187</v>
+        <v>620.75383387323257</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1019,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1031,7 +1031,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
